--- a/Documents/Contribution Spreadsheet.xlsx
+++ b/Documents/Contribution Spreadsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\IdeaProjects\CWProject\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Htoo Aung Kyaw\IdeaProjects\CWProject\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C154C7B5-7DB3-45CC-9359-874832D38FD9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8A42B8-D2E5-4DB4-8884-1629463E9FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5652" xr2:uid="{A52680E9-A1CC-46A7-A6C9-BD733B5E0F19}"/>
+    <workbookView xWindow="1812" yWindow="1812" windowWidth="17280" windowHeight="8964" xr2:uid="{A52680E9-A1CC-46A7-A6C9-BD733B5E0F19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,20 +25,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Member</t>
   </si>
   <si>
-    <t>Week</t>
-  </si>
-  <si>
     <t>Role</t>
   </si>
   <si>
-    <t>Mark</t>
-  </si>
-  <si>
     <t>Htet Aung San</t>
   </si>
   <si>
@@ -58,6 +52,15 @@
   </si>
   <si>
     <t>Product Owner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Week 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Week 2 </t>
+  </si>
+  <si>
+    <t>No.</t>
   </si>
 </sst>
 </file>
@@ -410,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D574A8E-87E9-49AB-8B52-17E92A2D49A1}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -421,73 +424,88 @@
     <col min="1" max="4" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E4" s="1">
         <v>0.25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
       <c r="D5" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E5" s="1">
         <v>0.25</v>
       </c>
     </row>
